--- a/04soil_depth_statistics_with_ic_and_qc_avg_skipping_invalid.xlsx
+++ b/04soil_depth_statistics_with_ic_and_qc_avg_skipping_invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C296C4-E626-4E30-A455-A974EAA72B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A7CC6E-5C27-4955-A4B6-5B2881E160D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,126 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -442,7 +560,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,14 +1119,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$A1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$A1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$A1=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A1=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04soil_depth_statistics_with_ic_and_qc_avg_skipping_invalid.xlsx
+++ b/04soil_depth_statistics_with_ic_and_qc_avg_skipping_invalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo\Desktop\CECI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A7CC6E-5C27-4955-A4B6-5B2881E160D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B492AB-3CBF-47FD-8338-80EEFB478A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11175" yWindow="2115" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,61 +122,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -208,49 +237,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,7 +558,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -598,246 +585,300 @@
       <c r="D2" s="2">
         <v>1.7392171717171681</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>14.6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>15.56</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>2.1021951219512189</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>15.58</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>29.14</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1.937861771058313</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>29.16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>29.86</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>2.170952380952381</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="11">
         <v>29.88</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>31.7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>2.0597500000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>31.72</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>32.26</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>2.1772727272727268</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>32.28</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>37.920000000000499</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1.984964028776977</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>37.940000000000502</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>40.460000000000797</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>2.999814814814814</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>40.480000000000899</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>40.600000000000897</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.8140000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>40.6200000000009</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>43.280000000001301</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2.4376923076923069</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="E11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>43.300000000001297</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>44.9600000000016</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>3.0978431372549031</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>44.980000000001603</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>46.260000000001803</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>2.248139534883721</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>46.280000000001799</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>46.800000000001802</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>2.778</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>46.820000000001798</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>47.680000000002003</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>2.418333333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="E15" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>47.700000000001999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>48.120000000002101</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>2.2937500000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="E16" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>48.140000000002097</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>49.1200000000022</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>3.0330434782608688</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="E17" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>49.140000000002203</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>59.440000000003799</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>1.969999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>59.460000000003802</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>60.340000000003997</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>2.7513513513513508</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -850,78 +891,96 @@
       <c r="D20" s="2">
         <v>3.070133333333334</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="E20" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>63.620000000004502</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>63.900000000004503</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>2.1341666666666659</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>63.920000000004499</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>67.400000000005093</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>1.898170731707316</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>67.420000000005103</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>68.2200000000052</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>3.0627777777777769</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="E23" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>68.240000000005196</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>69.100000000005295</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>2.3323529411764699</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="E24" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>69.120000000005305</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>70.539999999999907</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1.8475757575757581</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -934,148 +993,181 @@
       <c r="D26" s="2">
         <v>2.22734693877551</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="E26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>72.739999999999498</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>73.739999999999299</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>2.7273333333333341</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="E27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>73.759999999999295</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>78.179999999998401</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>3.375530303030303</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="E28" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>78.199999999998397</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>78.299999999998306</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>2.0525000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="E29" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>78.319999999998302</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>79.4799999999981</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>2.1959459459459461</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="E30" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>79.499999999998096</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>80.399999999997902</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>1.901904761904762</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="E31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>80.419999999997898</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>80.859999999997797</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>2.3511764705882361</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>80.879999999997807</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>81.579999999997696</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>2.225151515151516</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="E33" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>81.599999999997706</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>84.099999999997195</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>2.3452500000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="E34" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>84.119999999997205</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>87.639999999996505</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>3.1026470588235289</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="E35" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>87.659999999996501</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>90.6799999999959</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>2.2043925233644859</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1088,8 +1180,11 @@
       <c r="D37">
         <v>2.7067073170731719</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1102,8 +1197,11 @@
       <c r="D38">
         <v>3.0930769230769228</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1116,24 +1214,27 @@
       <c r="D39">
         <v>2.0138297872340418</v>
       </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$A1=1</formula>
+  <conditionalFormatting sqref="A1:D1048576 E2:E39">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A1=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$A1=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$A1=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>$A1=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$A1=5</formula>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$A1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
